--- a/Documentation/接口交互文档版本记录/工程分析&TCF接口.xlsx
+++ b/Documentation/接口交互文档版本记录/工程分析&TCF接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>json类型的true或false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
   </si>
   <si>
     <t>CustomParameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,10 +84,6 @@
   </si>
   <si>
     <t>json类型提示信息（若不存在在返回空字符串）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json类型的集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,39 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>json类型的true或false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waferId：晶圆主键；
-classify：值为"add"；
-sParameter：s参数；
-markerName：marker名；
-xPoint：点X数据；yPoint：点Y数据；
-coordinateId：die主键；
-sParameter：s参数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时更新晶圆所有die的marker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waferId：晶圆主键；
-oldMarkerName：旧marker名；
-markerName：修改的marker名；
-classify：值为"modify"；
-coordinateId：die主键；
-sParameter：s参数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>classify：值为"remove"；
-waferId：晶圆主键；
-markerName：marker名；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>curveTypeId：数组，曲线主键；
 waferId：晶圆主键;
 sParameter：s参数。</t>
@@ -188,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Calculator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CalculationData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,19 +155,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>json类型集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应用到当前晶圆的其余die</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MarkerSave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,31 +167,6 @@
 markerKey：打marker的依据；
 sParameter：s参数，即TCF页面的入口；
 waferId：晶圆主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只允许修改marker名
-（不确定还需不需要更改marker，此接口暂留）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除曲线的marker点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearMarker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curvTypeIdStr：曲线文件主键字符串，英文逗号分隔，首尾不能为逗号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换key时，要先清除原来的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,12 +188,64 @@
 formula：前端转的数字公式字符串；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>弃用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+classify：值为"add"；
+Map&lt;String, String[]&gt;集合，格式：key随意，value数组为
+[0]=curveTypeId曲线类型主键，[1]=Marker名字，[2]=Marker.X，
+[3]=Marker.Y,[4]=key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只允许修改marker名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify：值为"modify"；
+Map&lt;String, String[]&gt;集合，格式：key随意，value数组为
+[0]=Marker主键，
+[1]=Marker名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify：值为"remove"；
+curveTypeId:曲线类型主键，字符串拼接，英文逗号分隔，首尾不为逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMarker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveTypeId:曲线类型主键，字符串拼接，英文逗号分隔，首尾不为逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型，数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换key时，要先清除原来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +281,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -337,13 +327,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,9 +412,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,21 +420,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -456,6 +428,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,6 +589,53 @@
         <a:xfrm>
           <a:off x="15982950" y="2647950"/>
           <a:ext cx="6267450" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1123950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13354050" y="12325350"/>
+          <a:ext cx="4314825" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -935,230 +978,230 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="155.25" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="121.5" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="141.75" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="141.75" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="110.25" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="111.75" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="100.5" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="121.5" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="110.25" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="111.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/接口交互文档版本记录/工程分析&TCF接口.xlsx
+++ b/Documentation/接口交互文档版本记录/工程分析&TCF接口.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4D591-036A-4819-A3A4-C40B1BA0BBD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,14 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>waferId：晶圆主键；
-classify：值为"add"；
-Map&lt;String, String[]&gt;集合，格式：key随意，value数组为
-[0]=curveTypeId曲线类型主键，[1]=Marker名字，[2]=Marker.X，
-[3]=Marker.Y,[4]=key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只允许修改marker名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,40 +205,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>marker获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMarker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveTypeId:曲线类型主键，字符串拼接，英文逗号分隔，首尾不为逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型，数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换key时，要先清除原来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+classify：值为"add"；
+sParameter: s参数；
+Map&lt;String, String[]&gt;集合，格式：key随意，value数组为
+[0]=curveTypeId曲线类型主键，[1]=Marker名字，[2]=Marker.X，
+[3]=Marker.Y,[4]=key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>classify：值为"remove"；
+sParameter: s参数；
 curveTypeId:曲线类型主键，字符串拼接，英文逗号分隔，首尾不为逗号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marker获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetMarker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveTypeId:曲线类型主键，字符串拼接，英文逗号分隔，首尾不为逗号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json类型，数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换key时，要先清除原来的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +423,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -428,30 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,6 +462,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,7 +490,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -526,7 +543,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -573,7 +596,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -620,7 +649,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -656,7 +691,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -698,7 +733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,9 +765,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,6 +817,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -939,14 +1010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -957,7 +1028,7 @@
     <col min="7" max="7" width="87.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,17 +1048,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -995,213 +1066,213 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="155.25" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="155.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="121.5" customHeight="1">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="110.25" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="111.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="111.75" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10" t="s">
+    <row r="13" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="100.5" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1215,12 +1286,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,12 +1300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/接口交互文档版本记录/工程分析&TCF接口.xlsx
+++ b/Documentation/接口交互文档版本记录/工程分析&TCF接口.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4D591-036A-4819-A3A4-C40B1BA0BBD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5DFECC58-DC1B-440E-A3C2-8B8A0064DBCB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,16 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coordinateId：坐标主键；
-waferId：晶圆主键；
-oldParameter：修改前的参数；
-customParameter：自定义参数；
-coordinateId：坐标主键；
-userformula：用户输入的公式；
-formula：前端转的数字公式字符串；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弃用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +231,16 @@
     <t>classify：值为"remove"；
 sParameter: s参数；
 curveTypeId:曲线类型主键，字符串拼接，英文逗号分隔，首尾不为逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinateId：坐标主键；
+waferId：晶圆主键；
+oldParameter：修改前的参数；
+customParameter：自定义参数；
+calculationId：公式主键；
+userformula：用户输入的公式；
+formula：前端转的数字公式字符串；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1115,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -1177,7 +1177,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1191,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>11</v>
@@ -1209,13 +1209,13 @@
         <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1229,30 +1229,30 @@
         <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="5"/>
     </row>
